--- a/data/trans_dic/P40_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra parado/a en la actualidad</t>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,38; 39,19</t>
+          <t>14,57; 62,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 39,73</t>
+          <t>4,34; 29,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,21</t>
+          <t>1,47; 16,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,69</t>
+          <t>1,89; 18,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 18,43</t>
+          <t>0,0; 12,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 20,55</t>
+          <t>5,01; 22,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 15,88</t>
+          <t>6,36; 27,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 14,98</t>
+          <t>3,75; 20,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 25,02</t>
+          <t>4,26; 22,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 28,59</t>
+          <t>5,67; 23,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,55</t>
+          <t>11,89; 39,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,38</t>
+          <t>7,21; 23,33</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 15,47</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 17,23</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 15,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>21,28%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 23,8</t>
+          <t>11,56; 32,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 24,62</t>
+          <t>10,76; 33,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,08</t>
+          <t>4,58; 14,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 14,67</t>
+          <t>4,96; 16,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,07; 31,73</t>
+          <t>5,58; 18,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 28,39</t>
+          <t>20,13; 33,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 20,04</t>
+          <t>18,29; 31,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,14; 24,77</t>
+          <t>12,17; 24,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,35; 26,43</t>
+          <t>15,92; 29,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,69; 23,71</t>
+          <t>12,09; 23,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,77</t>
+          <t>17,64; 29,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 17,2</t>
+          <t>16,74; 28,96</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,39; 16,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,55; 19,92</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 18,52</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12,19%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>12,35%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,31%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>14,11%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 19,25</t>
+          <t>4,77; 19,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 20,38</t>
+          <t>3,58; 21,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 18,74</t>
+          <t>6,26; 23,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,81</t>
+          <t>2,56; 17,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,74</t>
+          <t>1,71; 10,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 22,78</t>
+          <t>9,75; 21,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,78</t>
+          <t>11,54; 24,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,28</t>
+          <t>7,45; 17,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 17,66</t>
+          <t>7,97; 18,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 19,19</t>
+          <t>7,92; 19,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 15,1</t>
+          <t>9,56; 18,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,4</t>
+          <t>9,89; 19,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 17,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 15,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 12,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 21,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 20,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 16,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 20,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,35%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,51%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,87; 26,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 23,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 14,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 13,49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 11,67</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 24,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 24,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 17,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 20,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,78; 18,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 22,62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 20,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 15,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 15,59</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 14,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33363</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18158</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6155</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8281</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14574</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20123</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11428</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12690</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28785</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47937</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>38280</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>17583</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>20971</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>36132</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15054; 65079</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5600; 37636</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1552; 17137</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2157; 21503</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22172</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5904; 27088</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9068; 38751</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4334; 23346</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5210; 27202</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12141; 50003</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26289; 87500</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19569; 63320</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7786; 34188</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9294; 40744</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16525; 62501</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67310</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>77650</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31476</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36372</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>55439</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>102588</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>112601</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>64812</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>82250</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>85037</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>169898</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>190251</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>96288</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>118621</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>140476</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>42317; 118764</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46224; 144585</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17242; 53431</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19715; 63869</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28322; 91358</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78637; 130467</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>84931; 145437</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46372; 93000</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>59742; 109662</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>59540; 115123</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>133498; 222915</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>149671; 258860</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>71092; 128010</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>89228; 153866</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>102764; 185182</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29694</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34422</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21333</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16067</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52202</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>71128</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40245</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40432</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50471</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>81896</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>100931</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>74668</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>61765</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>66538</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13446; 54639</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11738; 69182</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17665; 66338</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7058; 48966</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6045; 36930</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35072; 76701</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>49435; 103271</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25679; 61011</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26098; 59885</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31221; 74866</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>61368; 116084</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>74754; 145632</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>50807; 112358</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>40142; 93024</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>45035; 96358</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>130368</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>125611</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>72053</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>65986</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>78853</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>169364</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>203851</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>116486</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>135372</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>164293</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>299732</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>329463</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>188539</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>201357</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>243146</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>89213; 197298</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>85639; 206281</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>46645; 111336</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>40927; 106154</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>49988; 121209</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>141632; 212252</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>165506; 250666</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>90616; 146712</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>106825; 170459</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>129654; 206378</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>248717; 366386</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>268567; 402025</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>150631; 240696</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>160776; 251277</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>198819; 305431</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
